--- a/config/data.xlsx
+++ b/config/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>URL</t>
   </si>
@@ -33,7 +33,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>http://192.168.199.240:8061/sellerApi/materialUserAccount/login</t>
+    <t>http://192.168.199.240:8061/sellerApi/materialUserAccount/login/</t>
   </si>
   <si>
     <t>POST</t>
@@ -48,28 +48,56 @@
     <t>登录</t>
   </si>
   <si>
-    <t xml:space="preserve">http://192.168.199.240:8061/sellerApi/materialUserAccount/validateMobile
+    <t>http://192.168.199.240:8061/sellerApi/materialUserAccount/validateMobile/</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{"mobile":"15617816228"}</t>
+  </si>
+  <si>
+    <t>http://192.168.199.240:8061/sellerApi/sendSms/validateSmsCode/</t>
+  </si>
+  <si>
+    <t>{"mobile":"15617816228","verifyCode":"2156"}</t>
+  </si>
+  <si>
+    <t>http://192.168.199.240:8061/sellerApi/unit/list/</t>
+  </si>
+  <si>
+    <t>获取列表</t>
+  </si>
+  <si>
+    <t>http://192.168.199.240:8061/api/search/getDefaultClassification/</t>
+  </si>
+  <si>
+    <t>{"threeType":0}</t>
+  </si>
+  <si>
+    <t>获取分类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://192.168.199.240:8061/api/search/getProductDetail/
 </t>
   </si>
   <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>{"mobile":"15617816228"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://192.168.199.240:8061/sellerApi/sendSms/validateSmsCode
-</t>
-  </si>
-  <si>
-    <t>{"mobile":"15617816228","verifyCode":"2156"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://192.168.199.240:8061/sellerApi/unit/list
-</t>
-  </si>
-  <si>
-    <t>获取列表</t>
+    <t>{"id":"351","userCode":"2018092900001"}</t>
+  </si>
+  <si>
+    <t>http://192.168.199.240:8061/sellerApi/materialUserAccount/validateNickName/</t>
+  </si>
+  <si>
+    <t>{"nickName":"",}</t>
+  </si>
+  <si>
+    <t>校验昵称</t>
+  </si>
+  <si>
+    <t>http://192.168.199.240:8061/sellerApi/materialShop/queryMyShop</t>
+  </si>
+  <si>
+    <t>{"userCode":"","shopId":"0"}</t>
   </si>
 </sst>
 </file>
@@ -77,12 +105,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +127,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF008800"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -107,6 +141,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF666600"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -115,7 +185,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,33 +228,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,51 +260,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -251,6 +284,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -263,7 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,42 +422,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -323,109 +434,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +475,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,6 +513,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,41 +569,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -547,49 +580,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,101 +628,104 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,8 +738,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1056,13 +1101,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="64.375" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
@@ -1132,8 +1177,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:5">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
@@ -1145,13 +1190,82 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="6" ht="98" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:4">
+      <c r="A9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="3:3">
+      <c r="C10" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://192.168.199.240:8061/sellerApi/materialUserAccount/login" tooltip="http://192.168.199.240:8061/sellerApi/materialUserAccount/login"/>
-    <hyperlink ref="A3" r:id="rId2" display="http://192.168.199.240:8061/sellerApi/materialUserAccount/validateMobile&#10;" tooltip="http://192.168.199.240:8061/sellerApi/materialUserAccount/validateMobile&#10;"/>
-    <hyperlink ref="A4" r:id="rId3" display="http://192.168.199.240:8061/sellerApi/sendSms/validateSmsCode&#10;" tooltip="http://192.168.199.240:8061/sellerApi/sendSms/validateSmsCode&#10;"/>
-    <hyperlink ref="A5" r:id="rId4" display="http://192.168.199.240:8061/sellerApi/unit/list&#10;" tooltip="http://192.168.199.240:8061/sellerApi/unit/list&#10;"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://192.168.199.240:8061/sellerApi/materialUserAccount/login/" tooltip="http://192.168.199.240:8061/sellerApi/materialUserAccount/login/"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://192.168.199.240:8061/sellerApi/materialUserAccount/validateMobile/" tooltip="http://192.168.199.240:8061/sellerApi/materialUserAccount/validateMobile/"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://192.168.199.240:8061/sellerApi/sendSms/validateSmsCode/" tooltip="http://192.168.199.240:8061/sellerApi/sendSms/validateSmsCode/"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://192.168.199.240:8061/sellerApi/unit/list/" tooltip="http://192.168.199.240:8061/sellerApi/unit/list/"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://192.168.199.240:8061/api/search/getDefaultClassification/" tooltip="http://192.168.199.240:8061/api/search/getDefaultClassification/"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://192.168.199.240:8061/api/search/getProductDetail/&#10;" tooltip="http://192.168.199.240:8061/api/search/getProductDetail/&#10;"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://192.168.199.240:8061/sellerApi/materialUserAccount/validateNickName/" tooltip="http://192.168.199.240:8061/sellerApi/materialUserAccount/validateNickName/"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://192.168.199.240:8061/sellerApi/materialShop/queryMyShop"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/data.xlsx
+++ b/config/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>URL</t>
   </si>
@@ -67,22 +67,6 @@
   </si>
   <si>
     <t>获取列表</t>
-  </si>
-  <si>
-    <t>http://192.168.199.240:8061/api/search/getDefaultClassification/</t>
-  </si>
-  <si>
-    <t>{"threeType":0}</t>
-  </si>
-  <si>
-    <t>获取分类</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://192.168.199.240:8061/api/search/getProductDetail/
-</t>
-  </si>
-  <si>
-    <t>{"id":"351","userCode":"2018092900001"}</t>
   </si>
   <si>
     <t>http://192.168.199.240:8061/sellerApi/materialUserAccount/validateNickName/</t>
@@ -154,6 +138,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -181,6 +173,38 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,46 +252,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -284,6 +268,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,6 +316,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,54 +442,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -441,30 +449,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,16 +477,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -513,6 +497,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,32 +536,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,137 +579,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,9 +727,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1101,13 +1082,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="64.375" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
@@ -1191,12 +1172,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="98" customHeight="1" spans="1:5">
+    <row r="6" ht="27" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>18</v>
@@ -1209,7 +1190,7 @@
       </c>
     </row>
     <row r="7" ht="27" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
@@ -1222,39 +1203,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:5">
-      <c r="A8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" ht="27" spans="1:4">
-      <c r="A9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="3:3">
-      <c r="C10" s="8"/>
+    <row r="8" ht="14.25" spans="3:3">
+      <c r="C8" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1262,10 +1212,8 @@
     <hyperlink ref="A3" r:id="rId2" display="http://192.168.199.240:8061/sellerApi/materialUserAccount/validateMobile/" tooltip="http://192.168.199.240:8061/sellerApi/materialUserAccount/validateMobile/"/>
     <hyperlink ref="A4" r:id="rId3" display="http://192.168.199.240:8061/sellerApi/sendSms/validateSmsCode/" tooltip="http://192.168.199.240:8061/sellerApi/sendSms/validateSmsCode/"/>
     <hyperlink ref="A5" r:id="rId4" display="http://192.168.199.240:8061/sellerApi/unit/list/" tooltip="http://192.168.199.240:8061/sellerApi/unit/list/"/>
-    <hyperlink ref="A6" r:id="rId5" display="http://192.168.199.240:8061/api/search/getDefaultClassification/" tooltip="http://192.168.199.240:8061/api/search/getDefaultClassification/"/>
-    <hyperlink ref="A7" r:id="rId6" display="http://192.168.199.240:8061/api/search/getProductDetail/&#10;" tooltip="http://192.168.199.240:8061/api/search/getProductDetail/&#10;"/>
-    <hyperlink ref="A8" r:id="rId7" display="http://192.168.199.240:8061/sellerApi/materialUserAccount/validateNickName/" tooltip="http://192.168.199.240:8061/sellerApi/materialUserAccount/validateNickName/"/>
-    <hyperlink ref="A9" r:id="rId8" display="http://192.168.199.240:8061/sellerApi/materialShop/queryMyShop"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://192.168.199.240:8061/sellerApi/materialUserAccount/validateNickName/" tooltip="http://192.168.199.240:8061/sellerApi/materialUserAccount/validateNickName/"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://192.168.199.240:8061/sellerApi/materialShop/queryMyShop"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/data.xlsx
+++ b/config/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="16440" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>URL</t>
   </si>
@@ -33,55 +33,45 @@
     <t>备注</t>
   </si>
   <si>
-    <t>http://192.168.199.240:8061/sellerApi/materialUserAccount/login/</t>
+    <t>是否需要鉴权(0:不需要，1：需要)</t>
+  </si>
+  <si>
+    <t>https://api.quwank.com/login/submit</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>{"mobile":"15617816228","password":"2ba74ddca957a142b0aa0950db0afdc7"}</t>
-  </si>
-  <si>
-    <t>{"sourceType":"web"}</t>
+    <t>{"phone":15617816225,"password":123456}</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded"}</t>
   </si>
   <si>
     <t>登录</t>
   </si>
   <si>
-    <t>http://192.168.199.240:8061/sellerApi/materialUserAccount/validateMobile/</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>{"mobile":"15617816228"}</t>
-  </si>
-  <si>
-    <t>http://192.168.199.240:8061/sellerApi/sendSms/validateSmsCode/</t>
-  </si>
-  <si>
-    <t>{"mobile":"15617816228","verifyCode":"2156"}</t>
-  </si>
-  <si>
-    <t>http://192.168.199.240:8061/sellerApi/unit/list/</t>
-  </si>
-  <si>
-    <t>获取列表</t>
-  </si>
-  <si>
-    <t>http://192.168.199.240:8061/sellerApi/materialUserAccount/validateNickName/</t>
-  </si>
-  <si>
-    <t>{"nickName":"",}</t>
-  </si>
-  <si>
-    <t>校验昵称</t>
-  </si>
-  <si>
-    <t>http://192.168.199.240:8061/sellerApi/materialShop/queryMyShop</t>
-  </si>
-  <si>
-    <t>{"userCode":"","shopId":"0"}</t>
+    <t>https://api.quwank.com/goods/spuDetail</t>
+  </si>
+  <si>
+    <t>{"spuId": 65,
+"skuId": 193,
+"type": 1}</t>
+  </si>
+  <si>
+    <t>{Content-Type:application/x-www-form-urlencoded;charset=utf-8}</t>
+  </si>
+  <si>
+    <t>商品详情页</t>
+  </si>
+  <si>
+    <t>https://api.quwank.com/goods/collection/add</t>
+  </si>
+  <si>
+    <t>{"skuId":193}</t>
+  </si>
+  <si>
+    <t>收藏</t>
   </si>
 </sst>
 </file>
@@ -89,12 +79,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,12 +101,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF008800"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -125,60 +109,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF666600"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,9 +124,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,20 +223,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -231,29 +231,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,187 +246,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +437,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,30 +469,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,15 +499,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -554,8 +517,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,10 +545,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,137 +557,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,20 +697,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1082,21 +1051,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="64.375" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="47.375" customWidth="1"/>
-    <col min="4" max="4" width="35.875" customWidth="1"/>
+    <col min="4" max="4" width="63" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1112,108 +1083,76 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="62" customHeight="1" spans="1:5">
+    <row r="2" ht="62" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="65" customHeight="1" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" ht="62" customHeight="1" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+    <row r="4" ht="155" customHeight="1" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" ht="62" customHeight="1" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:4">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="3:3">
-      <c r="C8" s="7"/>
-    </row>
+    <row r="5" ht="155" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://192.168.199.240:8061/sellerApi/materialUserAccount/login/" tooltip="http://192.168.199.240:8061/sellerApi/materialUserAccount/login/"/>
-    <hyperlink ref="A3" r:id="rId2" display="http://192.168.199.240:8061/sellerApi/materialUserAccount/validateMobile/" tooltip="http://192.168.199.240:8061/sellerApi/materialUserAccount/validateMobile/"/>
-    <hyperlink ref="A4" r:id="rId3" display="http://192.168.199.240:8061/sellerApi/sendSms/validateSmsCode/" tooltip="http://192.168.199.240:8061/sellerApi/sendSms/validateSmsCode/"/>
-    <hyperlink ref="A5" r:id="rId4" display="http://192.168.199.240:8061/sellerApi/unit/list/" tooltip="http://192.168.199.240:8061/sellerApi/unit/list/"/>
-    <hyperlink ref="A6" r:id="rId5" display="http://192.168.199.240:8061/sellerApi/materialUserAccount/validateNickName/" tooltip="http://192.168.199.240:8061/sellerApi/materialUserAccount/validateNickName/"/>
-    <hyperlink ref="A7" r:id="rId6" display="http://192.168.199.240:8061/sellerApi/materialShop/queryMyShop"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://api.quwank.com/login/submit" tooltip="https://api.quwank.com/login/submit"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://api.quwank.com/goods/spuDetail" tooltip="https://api.quwank.com/goods/spuDetail"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://api.quwank.com/goods/collection/add"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
